--- a/results/FrequencyTables/25808449_T6.xlsx
+++ b/results/FrequencyTables/25808449_T6.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00950020652622883</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.000619578686493185</v>
       </c>
       <c r="D2">
-        <v>0.97</v>
+        <v>0.980896323833127</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0170384138785626</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>0.00216852540272615</v>
       </c>
       <c r="G2">
-        <v>0.88</v>
+        <v>0.877426683188765</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00103263114415531</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000413052457662123</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.0219950433705081</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0026848409748038</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.998864105741429</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.000103263114415531</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.000516315572077654</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000103263114415531</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.969021065675341</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.0026848409748038</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.998657579512598</v>
       </c>
       <c r="S2">
-        <v>0.85</v>
+        <v>0.961482858323007</v>
       </c>
       <c r="T2">
-        <v>0.93</v>
+        <v>0.980380008261049</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00196199917389508</v>
       </c>
       <c r="V2">
-        <v>0.99</v>
+        <v>0.993700950020653</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00454357703428335</v>
       </c>
       <c r="X2">
-        <v>0.16</v>
+        <v>0.135997521685254</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000206526228831062</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000826104915324246</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.000929368029739777</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000309789343246592</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>0.0193102023957043</v>
       </c>
       <c r="G3">
-        <v>0.09</v>
+        <v>0.0469847170590665</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000516315572077654</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.998244527054936</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00309789343246592</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000413052457662123</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.89</v>
+        <v>0.870095002065262</v>
       </c>
       <c r="N3">
-        <v>0.03</v>
+        <v>0.0365551425030979</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000309789343246592</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000826104915324246</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000103263114415531</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00103263114415531</v>
       </c>
       <c r="T3">
-        <v>0.07</v>
+        <v>0.00908715406856671</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00278810408921933</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000929368029739777</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000413052457662123</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.000619578686493185</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.986162742668319</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.000103263114415531</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>0.0114622057001239</v>
       </c>
       <c r="E4">
-        <v>0.97</v>
+        <v>0.980276745146634</v>
       </c>
       <c r="F4">
-        <v>0.97</v>
+        <v>0.974597273853779</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>0.0577240809582817</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.000516315572077654</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000619578686493185</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.00660883932259397</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.995043370508054</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000206526228831062</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.000309789343246592</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000103263114415531</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0263320941759603</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.995662949194548</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000722841800908715</v>
       </c>
       <c r="S4">
-        <v>0.15</v>
+        <v>0.028397356464271</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000826104915324246</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000413052457662123</v>
       </c>
       <c r="V4">
-        <v>0.01</v>
+        <v>0.00175547294506402</v>
       </c>
       <c r="W4">
-        <v>0.99</v>
+        <v>0.993391160677406</v>
       </c>
       <c r="X4">
-        <v>0.83</v>
+        <v>0.85212722015696</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000413052457662123</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.99814126394052</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00123915737298637</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00123915737298637</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00454357703428335</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.997934737711689</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000103263114415531</v>
       </c>
       <c r="J5">
-        <v>0.95</v>
+        <v>0.960140437835605</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000826104915324246</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.111524163568773</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>0.956732755059893</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.999793473771169</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.000826104915324246</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000103263114415531</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00123915737298637</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00722841800908715</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.993184634448575</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00258157786038827</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.000413052457662123</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000516315572077654</v>
       </c>
     </row>
   </sheetData>
